--- a/Model Results on Test.xlsx
+++ b/Model Results on Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shintaki\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shintaki\Documents\Python Scripts\Twitter personality prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B73A249F-A78D-4DF3-A248-332ADA24AAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B15F17-1D80-4B70-810B-C21887F7753C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{D7C842A2-6747-4CA5-8AFF-3E52B3D6E150}"/>
+    <workbookView xWindow="2592" yWindow="900" windowWidth="17280" windowHeight="8964" xr2:uid="{D7C842A2-6747-4CA5-8AFF-3E52B3D6E150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>I/E</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Personality</t>
   </si>
   <si>
-    <t>Bi 128U LSTM 10 EP 0.001 LR 0.25 DO</t>
-  </si>
-  <si>
     <t>LR = Learning Rate ; DO = Dropout</t>
   </si>
   <si>
@@ -58,6 +55,18 @@
   </si>
   <si>
     <t>BI = Bidirec ;U = Units ; EP = Epochs ;</t>
+  </si>
+  <si>
+    <t>Bi 128U LSTM 10 EP 0.001 LR 0.25 DO MultiTask</t>
+  </si>
+  <si>
+    <t>SingleTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results on Test Set </t>
+  </si>
+  <si>
+    <t>BERT MultiTask</t>
   </si>
 </sst>
 </file>
@@ -93,8 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,73 +424,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844675E-BDCF-4950-B769-4C6C46CCBC02}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.82</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.54</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Model Results on Test.xlsx
+++ b/Model Results on Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shintaki\Documents\Python Scripts\Twitter personality prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B15F17-1D80-4B70-810B-C21887F7753C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADC7562-8728-4372-9B09-CC382AE5E80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="900" windowWidth="17280" windowHeight="8964" xr2:uid="{D7C842A2-6747-4CA5-8AFF-3E52B3D6E150}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7C842A2-6747-4CA5-8AFF-3E52B3D6E150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>I/E</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>BERT MultiTask</t>
+  </si>
+  <si>
+    <t>Bert SingleTask</t>
   </si>
 </sst>
 </file>
@@ -102,13 +105,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844675E-BDCF-4950-B769-4C6C46CCBC02}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,9 +442,10 @@
     <col min="2" max="2" width="42.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -448,8 +455,11 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +473,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,7 +487,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -491,7 +501,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -505,7 +515,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -516,12 +526,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -529,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>

--- a/Model Results on Test.xlsx
+++ b/Model Results on Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shintaki\Documents\Python Scripts\Twitter personality prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADC7562-8728-4372-9B09-CC382AE5E80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A7BEF8-F0AE-4FBF-8C61-D4DF7AFBD548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7C842A2-6747-4CA5-8AFF-3E52B3D6E150}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>I/E</t>
   </si>
@@ -45,9 +45,6 @@
     <t>J/P</t>
   </si>
   <si>
-    <t>Personality</t>
-  </si>
-  <si>
     <t>LR = Learning Rate ; DO = Dropout</t>
   </si>
   <si>
@@ -57,19 +54,40 @@
     <t>BI = Bidirec ;U = Units ; EP = Epochs ;</t>
   </si>
   <si>
+    <t xml:space="preserve">Results on Test Set </t>
+  </si>
+  <si>
+    <t>Bert PyTorch User Model 20 EP 5 POSTS</t>
+  </si>
+  <si>
+    <t>LSTM SingleTask</t>
+  </si>
+  <si>
+    <t>DistilBert PyTorch 3 EP Sentence Model</t>
+  </si>
+  <si>
+    <t>Bert PyTorch Model 20 EP 16 Personalities</t>
+  </si>
+  <si>
+    <t>Personality :</t>
+  </si>
+  <si>
+    <t>Time :</t>
+  </si>
+  <si>
+    <t>Bert MultiTask 1 EP Keras:</t>
+  </si>
+  <si>
+    <t>LSTM 16 Personalities</t>
+  </si>
+  <si>
+    <t>DistilBert PyTorch 10 EP Sentence Model</t>
+  </si>
+  <si>
+    <t>0.61 Acc - 0.54 F1</t>
+  </si>
+  <si>
     <t>Bi 128U LSTM 10 EP 0.001 LR 0.25 DO MultiTask</t>
-  </si>
-  <si>
-    <t>SingleTask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results on Test Set </t>
-  </si>
-  <si>
-    <t>BERT MultiTask</t>
-  </si>
-  <si>
-    <t>Bert SingleTask</t>
   </si>
 </sst>
 </file>
@@ -430,36 +448,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844675E-BDCF-4950-B769-4C6C46CCBC02}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1"/>
+    <col min="8" max="8" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,11 +499,17 @@
       <c r="C2">
         <v>0.68</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0.77</v>
+      </c>
+      <c r="G2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,11 +519,17 @@
       <c r="C3">
         <v>0.82</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0.86</v>
+      </c>
+      <c r="G3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -497,11 +539,17 @@
       <c r="C4">
         <v>0.66</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0.61</v>
+      </c>
+      <c r="G4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -511,37 +559,62 @@
       <c r="C5">
         <v>0.54</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.26</v>
       </c>
       <c r="D6" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
